--- a/cfg/怪物信息.xlsx
+++ b/cfg/怪物信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="q_monster" sheetId="4" r:id="rId1"/>
@@ -123,10 +123,10 @@
     <t>long</t>
   </si>
   <si>
-    <t>wxdgaming.chargame.server.bean.AttrInfo</t>
-  </si>
-  <si>
-    <t>List&lt;wxdgaming.chargame.server.bean.bag.ItemCfg&gt;</t>
+    <t>wxdgaming.spring.gamebase.entity.AttrInfo</t>
+  </si>
+  <si>
+    <t>List&lt;wxdgaming.spring.gamebase.entity.ItemCfg&gt;</t>
   </si>
   <si>
     <t>主键id</t>
@@ -547,12 +547,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1365,7 +1365,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -1381,7 +1381,7 @@
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:8">
+    <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1393,7 +1393,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" ht="14.25" spans="1:8">
+    <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:8">
+    <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:8">
+    <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -1461,17 +1461,17 @@
       <c r="E4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:8">
+    <row r="5" spans="1:8">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:8">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="1:8">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:8">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>3</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:8">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>4</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:8">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>5</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:8">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>6</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:8">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>7</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="1:8">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>8</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:8">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>9</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="1:8">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>10</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="1:8">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>11</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="1:8">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>12</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="1:8">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>13</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" ht="14.25" spans="1:8">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>14</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" ht="14.25" spans="1:8">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>15</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" ht="14.25" spans="1:8">
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>16</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" ht="14.25" spans="1:8">
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>17</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="1:8">
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>18</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" ht="14.25" spans="1:8">
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>19</v>
       </c>
